--- a/assets/data/20250425_trend_summary.xlsx
+++ b/assets/data/20250425_trend_summary.xlsx
@@ -454,342 +454,342 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword Count </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Short Summary </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Source URL </t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Detailed Summary </t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword Count</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Short Summary</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Source URL</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Detailed Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t xml:space="preserve"> 新质生产力 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>---------------</t>
+          <t xml:space="preserve"> 47 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>----------------</t>
+          <t xml:space="preserve"> 国务院发布《关于加快新质生产力发展的指导意见》，明确到2027年建立健全新质生产力发展体系 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>------------</t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/23/content_6935781.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-------------------</t>
+          <t xml:space="preserve"> 4月23日，国务院发布指导意见，提出到2027年基本建立新质生产力发展体系，到2035年基本实现制造强国目标。文件强调科技创新是新质生产力的核心驱动力，重点发展人工智能、量子信息、生物制造等前沿技术。各部委将设立新质生产力产业发展基金，首期规模1000亿元。北京、上海等8个城市被确定为首批新质生产力示范区。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 新质生产力 </t>
+          <t xml:space="preserve"> 科技创新政策 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47 </t>
+          <t xml:space="preserve"> 42 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院发布《关于加快新质生产力发展的指导意见》，明确到2027年建立健全新质生产力发展体系 </t>
+          <t xml:space="preserve"> 科技部发布《科技创新支撑新质生产力发展行动方案(2025-2027年)》，推出五大行动 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/23/content_6935781.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250424_196532.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月23日，国务院发布指导意见，提出到2027年基本建立新质生产力发展体系，到2035年基本实现制造强国目标。文件强调科技创新是新质生产力的核心驱动力，重点发展人工智能、量子信息、生物制造等前沿技术。各部委将设立新质生产力产业发展基金，首期规模1000亿元。北京、上海等8个城市被确定为首批新质生产力示范区。</t>
+          <t xml:space="preserve"> 科技部4月24日发布三年行动方案，提出"五大行动"：关键核心技术攻关行动、科技成果转化提速行动、科技创新平台建设行动、科技人才队伍强化行动、科技国际合作深化行动。计划在人工智能、量子科技、生物技术等10个前沿领域布局100个战略科技项目，设立500亿元科技成果转化引导基金。方案明确将建设30个国家级科技创新中心和产业创新中心。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技创新政策 </t>
+          <t xml:space="preserve"> 人工智能 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 38 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部发布《科技创新支撑新质生产力发展行动方案(2025-2027年)》，推出五大行动 </t>
+          <t xml:space="preserve"> 工信部发布《人工智能创新应用行动计划(2025-2027)》，推动AI与实体经济深度融合 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250424_196532.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_7452a5bf20f3429b8a41f9503c4329e5.html </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部4月24日发布三年行动方案，提出"五大行动"：关键核心技术攻关行动、科技成果转化提速行动、科技创新平台建设行动、科技人才队伍强化行动、科技国际合作深化行动。计划在人工智能、量子科技、生物技术等10个前沿领域布局100个战略科技项目，设立500亿元科技成果转化引导基金。方案明确将建设30个国家级科技创新中心和产业创新中心。</t>
+          <t xml:space="preserve"> 工信部4月22日发布三年行动计划，提出到2027年培育100家人工智能创新企业，建设20个国家级人工智能产业集群。重点支持大模型、智能芯片、边缘计算等核心技术突破。计划在智能制造、智慧医疗、智能交通等10个重点行业实施AI应用示范工程。各省市将设立专项资金支持AI产业发展，预计总规模超过300亿元。方案特别强调AI安全和伦理治理，将制定行业标准规范。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人工智能 </t>
+          <t xml:space="preserve"> 量子计算 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38 </t>
+          <t xml:space="preserve"> 36 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《人工智能创新应用行动计划(2025-2027)》，推动AI与实体经济深度融合 </t>
+          <t xml:space="preserve"> 中科院发布全球首款超百量子比特通用量子计算机原型机"九章三号" </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/xxjsfzs/gzdt/art/2025/art_7452a5bf20f3429b8a41f9503c4329e5.html </t>
+          <t xml:space="preserve"> http://www.cas.cn/yw/202504/t20250420_4983726.shtml </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部4月22日发布三年行动计划，提出到2027年培育100家人工智能创新企业，建设20个国家级人工智能产业集群。重点支持大模型、智能芯片、边缘计算等核心技术突破。计划在智能制造、智慧医疗、智能交通等10个重点行业实施AI应用示范工程。各省市将设立专项资金支持AI产业发展，预计总规模超过300亿元。方案特别强调AI安全和伦理治理，将制定行业标准规范。</t>
+          <t xml:space="preserve"> 中科院物理研究所4月20日发布"九章三号"量子计算机，实现113个超导量子比特，量子体积达到2048，处于国际领先水平。国家发改委同日宣布投入200亿元支持量子计算产业发展，将在合肥、深圳、上海建设三个量子计算创新中心。科技部表示已将量子计算列为"十五五"科技创新规划优先发展领域，计划五年内实现1000比特级量子计算机。工信部将制定量子计算产业标准体系，支持量子云服务平台建设。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子计算 </t>
+          <t xml:space="preserve"> 半导体 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36 </t>
+          <t xml:space="preserve"> 33 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中科院发布全球首款超百量子比特通用量子计算机原型机"九章三号" </t>
+          <t xml:space="preserve"> 国家集成电路产业发展领导小组发布《加快高端芯片自主创新行动方案》 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cas.cn/yw/202504/t20250420_4983726.shtml </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/202504/21/content_6935552.htm </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中科院物理研究所4月20日发布"九章三号"量子计算机，实现113个超导量子比特，量子体积达到2048，处于国际领先水平。国家发改委同日宣布投入200亿元支持量子计算产业发展，将在合肥、深圳、上海建设三个量子计算创新中心。科技部表示已将量子计算列为"十五五"科技创新规划优先发展领域，计划五年内实现1000比特级量子计算机。工信部将制定量子计算产业标准体系，支持量子云服务平台建设。</t>
+          <t xml:space="preserve"> 4月21日，国家集成电路产业发展领导小组发布行动方案，提出到2027年实现14nm工艺规模量产，7nm工艺技术突破，并在3nm工艺上取得关键进展。方案明确在EDA工具、光刻机、高纯材料等卡脖子环节加大投入，设立1500亿元的集成电路产业投资基金（第三期）。计划在上海、南京、成都等地建设高端芯片制造集群。方案特别强调校企联合培养集成电路人才，将新增5万名专业人才培养名额。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 半导体 </t>
+          <t xml:space="preserve"> 航空航天 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家集成电路产业发展领导小组发布《加快高端芯片自主创新行动方案》 </t>
+          <t xml:space="preserve"> 国家航天局发布《2025-2030年中国航天发展路线图》，提出六大工程 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/202504/21/content_6935552.htm </t>
+          <t xml:space="preserve"> http://www.cnsa.gov.cn/n6758823/n6758838/c6851427/content.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月21日，国家集成电路产业发展领导小组发布行动方案，提出到2027年实现14nm工艺规模量产，7nm工艺技术突破，并在3nm工艺上取得关键进展。方案明确在EDA工具、光刻机、高纯材料等卡脖子环节加大投入，设立1500亿元的集成电路产业投资基金（第三期）。计划在上海、南京、成都等地建设高端芯片制造集群。方案特别强调校企联合培养集成电路人才，将新增5万名专业人才培养名额。</t>
+          <t xml:space="preserve"> 国家航天局4月24日发布六年路线图，提出月球科研站、行星探测、空间站、重型火箭、低轨卫星互联网、空天运输六大工程。计划2026年完成"嫦娥七号"南极探测，2027年建成国际月球科研站。2028年发射"火星样本返回"任务。将建设新一代重型运载火箭，运载能力达150吨，支持载人登月。计划建设全球覆盖的低轨卫星互联网星座，首期部署5000颗卫星。航天发展总投资预计超过2万亿元。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 航空航天 </t>
+          <t xml:space="preserve"> 科技成果转化 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 </t>
+          <t xml:space="preserve"> 27 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家航天局发布《2025-2030年中国航天发展路线图》，提出六大工程 </t>
+          <t xml:space="preserve"> 科技部与财政部联合发布《科技成果转化引导基金管理办法》 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cnsa.gov.cn/n6758823/n6758838/c6851427/content.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250422_196470.html </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家航天局4月24日发布六年路线图，提出月球科研站、行星探测、空间站、重型火箭、低轨卫星互联网、空天运输六大工程。计划2026年完成"嫦娥七号"南极探测，2027年建成国际月球科研站。2028年发射"火星样本返回"任务。将建设新一代重型运载火箭，运载能力达150吨，支持载人登月。计划建设全球覆盖的低轨卫星互联网星座，首期部署5000颗卫星。航天发展总投资预计超过2万亿元。</t>
+          <t xml:space="preserve"> 科技部与财政部4月22日联合发布办法，设立500亿元规模的国家科技成果转化引导基金，采用"母基金+直投"模式运作。基金将重点支持人工智能、生物医药、新材料等领域的科技成果产业化。鼓励高校院所科研人员持股并参与成果转化，对科研人员的股权激励个人所得税给予递延纳税优惠。简化科技成果评价程序，允许高校院所自主定价。计划在全国建设30个科技成果转化示范区，打造产学研深度融合创新生态。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技成果转化 </t>
+          <t xml:space="preserve"> 绿色环保技术 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与财政部联合发布《科技成果转化引导基金管理办法》 </t>
+          <t xml:space="preserve"> 生态环境部发布《碳中和技术创新行动计划(2025-2030)》 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250422_196470.html </t>
+          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk2018/xxgk/xxgk03/202504/t20250425_1077889.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与财政部4月22日联合发布办法，设立500亿元规模的国家科技成果转化引导基金，采用"母基金+直投"模式运作。基金将重点支持人工智能、生物医药、新材料等领域的科技成果产业化。鼓励高校院所科研人员持股并参与成果转化，对科研人员的股权激励个人所得税给予递延纳税优惠。简化科技成果评价程序，允许高校院所自主定价。计划在全国建设30个科技成果转化示范区，打造产学研深度融合创新生态。</t>
+          <t xml:space="preserve"> 生态环境部4月25日发布行动计划，明确六大重点技术领域：氢能、储能、碳捕捉利用与封存(CCUS)、工业减碳、绿色建筑、自然碳汇。计划到2030年，氢能成本降至20元/kg以下，CCUS成本降至200元/吨。将建设10个国家级低碳技术创新中心，在京津冀、长三角、粤港澳大湾区建设3个零碳产业示范区。中央财政设立碳中和技术专项资金，首期300亿元。特别强调跨部门协同创新，将建立碳中和技术创新联盟。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 绿色环保技术 </t>
+          <t xml:space="preserve"> 量子通信 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
+          <t xml:space="preserve"> 23 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生态环境部发布《碳中和技术创新行动计划(2025-2030)》 </t>
+          <t xml:space="preserve"> 中国量子科学实验卫星与地面量子通信网络实现全面连接，建成全球首个天地一体化量子通信网络 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk2018/xxgk/xxgk03/202504/t20250425_1077889.html </t>
+          <t xml:space="preserve"> http://www.cas.cn/yw/202504/t20250419_4983702.shtml </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生态环境部4月25日发布行动计划，明确六大重点技术领域：氢能、储能、碳捕捉利用与封存(CCUS)、工业减碳、绿色建筑、自然碳汇。计划到2030年，氢能成本降至20元/kg以下，CCUS成本降至200元/吨。将建设10个国家级低碳技术创新中心，在京津冀、长三角、粤港澳大湾区建设3个零碳产业示范区。中央财政设立碳中和技术专项资金，首期300亿元。特别强调跨部门协同创新，将建立碳中和技术创新联盟。</t>
+          <t xml:space="preserve"> 中科院4月19日宣布，"墨子号"量子科学实验卫星与"京沪干线"等地面量子通信骨干网实现全连接，建成覆盖北京、上海、合肥等15个城市的天地一体化量子通信网络，传输距离突破4600公里。国家发改委同日宣布启动量子通信"十四五"重大工程，投资500亿元建设覆盖全国的量子保密通信网络。计划2026年发射第二代量子卫星，2028年建成星座系统。工信部将在政务、金融、能源等领域推广量子通信应用，制定统一的量子通信技术标准。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子通信 </t>
+          <t xml:space="preserve"> 生物技术 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国量子科学实验卫星与地面量子通信网络实现全面连接，建成全球首个天地一体化量子通信网络 </t>
+          <t xml:space="preserve"> 国家发改委发布《生物技术与生物产业发展"十五五"规划》征求意见稿 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cas.cn/yw/202504/t20250419_4983702.shtml </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/hdjl/yjzq/202504/t20250423_1384599.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中科院4月19日宣布，"墨子号"量子科学实验卫星与"京沪干线"等地面量子通信骨干网实现全连接，建成覆盖北京、上海、合肥等15个城市的天地一体化量子通信网络，传输距离突破4600公里。国家发改委同日宣布启动量子通信"十四五"重大工程，投资500亿元建设覆盖全国的量子保密通信网络。计划2026年发射第二代量子卫星，2028年建成星座系统。工信部将在政务、金融、能源等领域推广量子通信应用，制定统一的量子通信技术标准。</t>
+          <t xml:space="preserve"> 国家发改委4月23日发布规划征求意见稿，提出到2030年生物产业总规模突破15万亿元。重点发展合成生物学、基因编辑、生物计算等前沿技术，培育20家具有国际竞争力的创新型生物技术企业。在医药领域，加速mRNA、细胞治疗等技术产业化；在农业领域，发展生物育种、生物农药；在工业领域，推进生物制造替代传统化工工艺。计划建设北京、上海、广州、成都四个国家级生物产业创新中心，打造全球领先的生物技术创新高地。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生物技术 </t>
+          <t xml:space="preserve"> 数字经济政策 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委发布《生物技术与生物产业发展"十五五"规划》征求意见稿 </t>
+          <t xml:space="preserve"> 中央网信办等十部门联合发布《数字经济创新发展试验区建设方案》 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/hdjl/yjzq/202504/t20250423_1384599.html </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025/04/22/c_1714224081836253.htm </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委4月23日发布规划征求意见稿，提出到2030年生物产业总规模突破15万亿元。重点发展合成生物学、基因编辑、生物计算等前沿技术，培育20家具有国际竞争力的创新型生物技术企业。在医药领域，加速mRNA、细胞治疗等技术产业化；在农业领域，发展生物育种、生物农药；在工业领域，推进生物制造替代传统化工工艺。计划建设北京、上海、广州、成都四个国家级生物产业创新中心，打造全球领先的生物技术创新高地。</t>
+          <t xml:space="preserve"> 中央网信办联合发改委等十部门4月22日发布方案，将在北京、上海、广州、杭州等12个城市建设国家数字经济创新发展试验区。试验区重点探索数据要素市场化配置、数字技术与实体经济融合、数字贸易开放合作等创新模式。到2027年，试验区数字经济核心产业增加值年均增速超过15%，培育100家数字经济领域"专精特新"企业。允许试验区在数据跨境流动、人工智能应用等领域先行先试，给予金融、税收、人才等政策支持。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字经济政策 </t>
+          <t xml:space="preserve"> 创新驱动发展 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -799,186 +799,186 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中央网信办等十部门联合发布《数字经济创新发展试验区建设方案》 </t>
+          <t xml:space="preserve"> 中共中央政治局召开会议审议《关于新时代强化创新驱动发展的意见》 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cac.gov.cn/2025/04/22/c_1714224081836253.htm </t>
+          <t xml:space="preserve"> http://www.xinhuanet.com/politics/leaders/2025-04/24/c_1136243561.htm </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中央网信办联合发改委等十部门4月22日发布方案，将在北京、上海、广州、杭州等12个城市建设国家数字经济创新发展试验区。试验区重点探索数据要素市场化配置、数字技术与实体经济融合、数字贸易开放合作等创新模式。到2027年，试验区数字经济核心产业增加值年均增速超过15%，培育100家数字经济领域"专精特新"企业。允许试验区在数据跨境流动、人工智能应用等领域先行先试，给予金融、税收、人才等政策支持。</t>
+          <t xml:space="preserve"> 中共中央政治局4月24日召开会议，审议通过《关于新时代强化创新驱动发展的意见》。会议强调把科技自立自强作为国家发展的战略支撑，完善国家创新体系，加快建设创新型国家和世界科技强国。会议提出五大任务：加强基础研究和原始创新、突破关键核心技术、促进科技与产业深度融合、深化科技体制改革、构建开放创新生态。会议决定设立中央科技创新委员会，加强党中央对科技创新工作的集中统一领导。增加基础研究投入，到2027年全社会研发投入超过4万亿元。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 创新驱动发展 </t>
+          <t xml:space="preserve"> 科技企业孵化 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央政治局召开会议审议《关于新时代强化创新驱动发展的意见》 </t>
+          <t xml:space="preserve"> 科技部印发《科技企业孵化体系建设行动计划(2025-2027年)》 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/politics/leaders/2025-04/24/c_1136243561.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250420_196423.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央政治局4月24日召开会议，审议通过《关于新时代强化创新驱动发展的意见》。会议强调把科技自立自强作为国家发展的战略支撑，完善国家创新体系，加快建设创新型国家和世界科技强国。会议提出五大任务：加强基础研究和原始创新、突破关键核心技术、促进科技与产业深度融合、深化科技体制改革、构建开放创新生态。会议决定设立中央科技创新委员会，加强党中央对科技创新工作的集中统一领导。增加基础研究投入，到2027年全社会研发投入超过4万亿元。</t>
+          <t xml:space="preserve"> 科技部4月20日印发三年行动计划，提出到2027年培育1万家科技型中小企业、1000家专精特新"小巨人"企业和100家制造业单项冠军。计划建设300个国家级科技企业孵化器、200个国家备案众创空间、100个专业化加速器，形成分层分类的科技创业孵化体系。设立100亿元国家级科技创业投资引导基金，吸引社会资本投入科技创业早期阶段。创新科技企业孵化模式，推广"投资+孵化"、"科研+孵化"等新模式。建立孵化机构绩效评价和动态调整机制。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技企业孵化 </t>
+          <t xml:space="preserve"> 战略新兴产业 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 20 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部印发《科技企业孵化体系建设行动计划(2025-2027年)》 </t>
+          <t xml:space="preserve"> 国家发改委印发《战略性新兴产业集群发展工程实施方案》 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250420_196423.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250422_1384575.html </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部4月20日印发三年行动计划，提出到2027年培育1万家科技型中小企业、1000家专精特新"小巨人"企业和100家制造业单项冠军。计划建设300个国家级科技企业孵化器、200个国家备案众创空间、100个专业化加速器，形成分层分类的科技创业孵化体系。设立100亿元国家级科技创业投资引导基金，吸引社会资本投入科技创业早期阶段。创新科技企业孵化模式，推广"投资+孵化"、"科研+孵化"等新模式。建立孵化机构绩效评价和动态调整机制。</t>
+          <t xml:space="preserve"> 国家发改委4月22日印发实施方案，提出到2027年建设50个国家级战略性新兴产业集群，带动形成100个区域特色产业集群。重点发展新一代信息技术、生物技术、新能源、新材料、高端装备制造等领域。每个国家级产业集群将获得10-20亿元中央引导资金支持，带动地方和社会资本投入。方案明确产业集群建设以企业为主体，推动大中小企业融通发展，鼓励龙头企业带动产业链配套企业协同创新。将建立产业集群动态评估和调整机制，实行能进能出。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 战略新兴产业 </t>
+          <t xml:space="preserve"> 国际创新平台 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委印发《战略性新兴产业集群发展工程实施方案》 </t>
+          <t xml:space="preserve"> 科技部与德国联邦教研部签署《关于共建中德创新平台的谅解备忘录》 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250422_1384575.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xwzx/gndt/202504/t20250423_196512.html </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委4月22日印发实施方案，提出到2027年建设50个国家级战略性新兴产业集群，带动形成100个区域特色产业集群。重点发展新一代信息技术、生物技术、新能源、新材料、高端装备制造等领域。每个国家级产业集群将获得10-20亿元中央引导资金支持，带动地方和社会资本投入。方案明确产业集群建设以企业为主体，推动大中小企业融通发展，鼓励龙头企业带动产业链配套企业协同创新。将建立产业集群动态评估和调整机制，实行能进能出。</t>
+          <t xml:space="preserve"> 科技部长与德国联邦教研部长4月23日在柏林签署备忘录，决定共建中德创新平台。平台将围绕人工智能、量子技术、气候变化等领域开展联合研究。双方将各出资5亿欧元，共同设立中德创新基金，支持两国企业联合研发。平台将在上海和柏林设立双向孵化器，为中德创新企业提供落地服务。建立人才交流机制，每年互派100名青年科学家和500名学生交流学习。这是中国首个与发达国家共建的高规格创新平台，标志着中德科技合作进入新阶段。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国际创新平台 </t>
+          <t xml:space="preserve"> 国家创新体系 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部与德国联邦教研部签署《关于共建中德创新平台的谅解备忘录》 </t>
+          <t xml:space="preserve"> 国务院印发《关于完善国家创新体系提升科技创新能力的若干意见》 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xwzx/gndt/202504/t20250423_196512.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/20/content_6935470.htm </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部长与德国联邦教研部长4月23日在柏林签署备忘录，决定共建中德创新平台。平台将围绕人工智能、量子技术、气候变化等领域开展联合研究。双方将各出资5亿欧元，共同设立中德创新基金，支持两国企业联合研发。平台将在上海和柏林设立双向孵化器，为中德创新企业提供落地服务。建立人才交流机制，每年互派100名青年科学家和500名学生交流学习。这是中国首个与发达国家共建的高规格创新平台，标志着中德科技合作进入新阶段。</t>
+          <t xml:space="preserve"> 国务院4月20日印发意见，提出到2027年基本形成支撑高水平科技自立自强的国家创新体系。重点任务包括：优化国家实验室布局，打造战略科技力量；健全企业为主体的产学研深度融合创新机制；完善科技人才发现、培养、激励机制；深化科技管理体制改革；强化金融支持创新功能。意见明确建立以国家实验室为引领的五级实验室体系，完善科技成果使用权、处置权、收益权管理制度。加强基础研究，到2027年基础研究经费投入占研发经费比重提高到10%以上。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家创新体系 </t>
+          <t xml:space="preserve"> 科技标准制定 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院印发《关于完善国家创新体系提升科技创新能力的若干意见》 </t>
+          <t xml:space="preserve"> 市场监管总局印发《国家技术标准创新基地建设发展规划(2025-2027年)》 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/20/content_6935470.htm </t>
+          <t xml:space="preserve"> http://www.samr.gov.cn/zw/wjfb/202504/t20250421_356792.html </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院4月20日印发意见，提出到2027年基本形成支撑高水平科技自立自强的国家创新体系。重点任务包括：优化国家实验室布局，打造战略科技力量；健全企业为主体的产学研深度融合创新机制；完善科技人才发现、培养、激励机制；深化科技管理体制改革；强化金融支持创新功能。意见明确建立以国家实验室为引领的五级实验室体系，完善科技成果使用权、处置权、收益权管理制度。加强基础研究，到2027年基础研究经费投入占研发经费比重提高到10%以上。</t>
+          <t xml:space="preserve"> 市场监管总局4月21日印发三年规划，提出到2027年建成30个国家技术标准创新基地，覆盖人工智能、量子信息、生物技术等战略前沿领域。规划重点任务包括：建立产学研用标协同创新机制，加强关键技术领域标准研制，增强国际标准话语权。计划三年内主导制定500项国际标准，推动我国技术标准"走出去"。建立标准创新人才培养体系，培养3000名标准化专业人才。设立国家技术标准创新专项资金，支持标准研制与应用示范。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技标准制定 </t>
+          <t xml:space="preserve"> 产学研结合 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 市场监管总局印发《国家技术标准创新基地建设发展规划(2025-2027年)》 </t>
+          <t xml:space="preserve"> 教育部、科技部、工信部联合印发《促进高校科技成果转化实施方案》 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.samr.gov.cn/zw/wjfb/202504/t20250421_356792.html </t>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202504/t20250424_651329.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 市场监管总局4月21日印发三年规划，提出到2027年建成30个国家技术标准创新基地，覆盖人工智能、量子信息、生物技术等战略前沿领域。规划重点任务包括：建立产学研用标协同创新机制，加强关键技术领域标准研制，增强国际标准话语权。计划三年内主导制定500项国际标准，推动我国技术标准"走出去"。建立标准创新人才培养体系，培养3000名标准化专业人才。设立国家技术标准创新专项资金，支持标准研制与应用示范。</t>
+          <t xml:space="preserve"> 教育部等三部门4月24日联合印发实施方案，提出到2027年高校科技成果转化收入年均增长20%以上。方案明确四项改革措施：扩大高校科技成果处置自主权；完善科研人员激励机制，将科技成果转化纳入职称评价；探索赋予科研人员职务科技成果所有权或长期使用权；建立高校与企业双向流动机制。支持高校建设300个技术转移中心和100个大学科技园。试点高校可设立一定比例的"双创岗位"，允许科研人员带项目、带成果创业。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 产学研结合 </t>
+          <t xml:space="preserve"> 氢能 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -988,103 +988,76 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 教育部、科技部、工信部联合印发《促进高校科技成果转化实施方案》 </t>
+          <t xml:space="preserve"> 国家发改委、国家能源局联合发布《氢能产业发展中长期规划(2025-2035年)》 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202504/t20250424_651329.html </t>
+          <t xml:space="preserve"> http://www.nea.gov.cn/2025-04/22/c_1310782415.htm </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 教育部等三部门4月24日联合印发实施方案，提出到2027年高校科技成果转化收入年均增长20%以上。方案明确四项改革措施：扩大高校科技成果处置自主权；完善科研人员激励机制，将科技成果转化纳入职称评价；探索赋予科研人员职务科技成果所有权或长期使用权；建立高校与企业双向流动机制。支持高校建设300个技术转移中心和100个大学科技园。试点高校可设立一定比例的"双创岗位"，允许科研人员带项目、带成果创业。</t>
+          <t xml:space="preserve"> 国家发改委与国家能源局4月22日联合发布规划，提出到2030年氢能产业链年产值突破1万亿元，氢能消费量达到3500万吨/年。规划确定三大发展路径：工业副产氢纯化利用、可再生能源制氢、燃料电池技术应用。到2027年，可再生能源电解水制氢成本降至25元/kg以下；到2030年，燃料电池系统成本降至1000元/kW以下。重点建设五大氢能产业集群：京津冀、长三角、粤港澳大湾区、四川重庆、中部地区。设立国家氢能创新中心，开展氢能全产业链关键技术攻关。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 氢能 </t>
+          <t xml:space="preserve"> 技术转移 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、国家能源局联合发布《氢能产业发展中长期规划(2025-2035年)》 </t>
+          <t xml:space="preserve"> 科技部印发《关于加快国家技术转移体系建设的实施意见》 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/2025-04/22/c_1310782415.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250419_196402.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委与国家能源局4月22日联合发布规划，提出到2030年氢能产业链年产值突破1万亿元，氢能消费量达到3500万吨/年。规划确定三大发展路径：工业副产氢纯化利用、可再生能源制氢、燃料电池技术应用。到2027年，可再生能源电解水制氢成本降至25元/kg以下；到2030年，燃料电池系统成本降至1000元/kW以下。重点建设五大氢能产业集群：京津冀、长三角、粤港澳大湾区、四川重庆、中部地区。设立国家氢能创新中心，开展氢能全产业链关键技术攻关。</t>
+          <t xml:space="preserve"> 科技部4月19日印发实施意见，提出到2027年初步建成统一开放、布局合理、功能互补的国家技术转移体系。重点任务包括：建设国家技术转移区域中心、行业中心和专业性技术转移机构三级体系；建立技术经理人职业发展和评价机制，培养3万名职业化技术经理人；搭建全国统一的技术交易网络平台。实施意见明确给予技术转移机构税收优惠，允许利用财政资金设立技术转移风险补偿基金。强调国际技术转移合作，支持设立海外技术转移中心，促进"引进来"与"走出去"。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 技术转移 </t>
+          <t xml:space="preserve"> 知识产权保护 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 13 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部印发《关于加快国家技术转移体系建设的实施意见》 </t>
+          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅印发《知识产权强国建设纲要(2025-2035年)》 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifabu/202504/t20250419_196402.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/23/content_6935754.htm </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部4月19日印发实施意见，提出到2027年初步建成统一开放、布局合理、功能互补的国家技术转移体系。重点任务包括：建设国家技术转移区域中心、行业中心和专业性技术转移机构三级体系；建立技术经理人职业发展和评价机制，培养3万名职业化技术经理人；搭建全国统一的技术交易网络平台。实施意见明确给予技术转移机构税收优惠，允许利用财政资金设立技术转移风险补偿基金。强调国际技术转移合作，支持设立海外技术转移中心，促进"引进来"与"走出去"。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 知识产权保护 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅印发《知识产权强国建设纲要(2025-2035年)》 </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/23/content_6935754.htm </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t xml:space="preserve"> 中办、国办4月23日印发纲要，提出到2035年我国知识产权综合实力进入世界前列。纲要明确三方面任务：完善知识产权保护法律体系，加大侵权假冒行为惩治力度；促进知识产权创造质量提升，建设知识产权密集型产业集群；深化知识产权国际合作，积极参与全球知识产权治理。计划设立知识产权法院，建立惩罚性赔偿制度。到2027年，每万人口高价值发明专利拥有量达到12件，版权产业增加值占GDP比重达到7.5%，知识产权使用费年进出口总额超过200亿美元。</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1542,14 +1515,152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>生物技术</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>生物技术</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>生物技术</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>国家创新体系</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>技术转移</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1560,7 +1671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,10 +1694,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>生物技术</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>氢能</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>国家创新体系</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>科技企业孵化</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>技术转移</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
